--- a/timetabling_GA/results/PS_CT002_HK3/LichHocKy_PS_CT002_HK3.xlsx
+++ b/timetabling_GA/results/PS_CT002_HK3/LichHocKy_PS_CT002_HK3.xlsx
@@ -84,14 +84,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFCCCB"/>
+        <bgColor rgb="00FFCCCB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
-        <bgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -625,7 +625,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -643,12 +643,19 @@
       <c r="H8" s="8" t="inlineStr">
         <is>
           <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -779,7 +786,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -794,15 +801,15 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="9" t="inlineStr">
         <is>
           <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -933,7 +940,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -948,15 +955,15 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="9" t="inlineStr">
         <is>
           <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -1087,7 +1094,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1102,15 +1109,15 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="9" t="inlineStr">
         <is>
           <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -1241,7 +1248,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1256,15 +1263,15 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="9" t="inlineStr">
         <is>
           <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -1395,7 +1402,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1410,15 +1417,15 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="9" t="inlineStr">
         <is>
           <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -1549,7 +1556,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1564,15 +1571,15 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="9" t="inlineStr">
         <is>
           <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -1593,7 +1600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1703,7 +1710,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1721,44 +1728,22 @@
       <c r="H8" s="8" t="inlineStr">
         <is>
           <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1776,7 +1761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,7 +1871,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1904,44 +1889,22 @@
       <c r="H8" s="8" t="inlineStr">
         <is>
           <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1959,7 +1922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2069,7 +2032,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2087,44 +2050,22 @@
       <c r="H8" s="8" t="inlineStr">
         <is>
           <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2142,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2252,7 +2193,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2270,44 +2211,22 @@
       <c r="H8" s="8" t="inlineStr">
         <is>
           <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2325,7 +2244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2435,7 +2354,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2453,44 +2372,22 @@
       <c r="H8" s="8" t="inlineStr">
         <is>
           <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2508,7 +2405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2618,7 +2515,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2636,44 +2533,22 @@
       <c r="H8" s="8" t="inlineStr">
         <is>
           <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2691,7 +2566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2801,7 +2676,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2819,44 +2694,22 @@
       <c r="H8" s="8" t="inlineStr">
         <is>
           <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2874,7 +2727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2984,7 +2837,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2999,47 +2852,18 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="9" t="inlineStr">
         <is>
           <t>MH003
 (Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>

--- a/timetabling_GA/results/PS_CT002_HK3/LichHocKy_PS_CT002_HK3.xlsx
+++ b/timetabling_GA/results/PS_CT002_HK3/LichHocKy_PS_CT002_HK3.xlsx
@@ -84,14 +84,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
-        <bgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFCCCB"/>
+        <bgColor rgb="00FFCCCB"/>
       </patternFill>
     </fill>
   </fills>
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,12 +625,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -640,25 +640,191 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Practice)
 Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
 (Theory)
 Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -676,7 +842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -786,12 +952,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -802,17 +968,104 @@
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -830,7 +1083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,12 +1193,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -956,17 +1209,104 @@
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -984,7 +1324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,12 +1434,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1110,17 +1450,104 @@
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1138,7 +1565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1248,12 +1675,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1264,17 +1691,104 @@
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1292,7 +1806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,12 +1916,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1418,17 +1932,104 @@
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1446,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1556,12 +2157,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1572,17 +2173,104 @@
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1600,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1710,12 +2398,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1725,25 +2413,155 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Practice)
 Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1761,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1871,12 +2689,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1886,25 +2704,162 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Practice)
 Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1922,7 +2877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2032,12 +2987,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2047,25 +3002,155 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Practice)
 Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2083,7 +3168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2193,12 +3278,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2208,25 +3293,148 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Practice)
 Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
 (Theory)
 Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2244,7 +3452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2354,12 +3562,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2369,25 +3577,148 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
-Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
 (Theory)
 Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2405,7 +3736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2515,12 +3846,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2530,25 +3861,141 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
-Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2566,7 +4013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2676,12 +4123,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2691,25 +4138,141 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
-Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2727,7 +4290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2837,12 +4400,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2853,17 +4416,104 @@
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>

--- a/timetabling_GA/results/PS_CT002_HK3/LichHocKy_PS_CT002_HK3.xlsx
+++ b/timetabling_GA/results/PS_CT002_HK3/LichHocKy_PS_CT002_HK3.xlsx
@@ -640,13 +640,20 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -669,156 +676,163 @@
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT4
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
         <is>
           <t>MH007
 (Practice)
 Room: TH2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>MH008
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
 Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>MH006
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>MH005
 (Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT3
+Room: TH3
 Lecturer: GV001</t>
         </is>
       </c>
@@ -967,13 +981,20 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -981,7 +1002,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -994,23 +1015,30 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1021,25 +1049,25 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1053,9 +1081,9 @@
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT1
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -1208,13 +1236,20 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -1222,7 +1257,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1235,23 +1270,30 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1262,25 +1304,25 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1294,9 +1336,9 @@
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT1
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -1449,13 +1491,20 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -1463,7 +1512,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1476,23 +1525,30 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1503,25 +1559,25 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1535,9 +1591,9 @@
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT1
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -1690,13 +1746,20 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -1704,7 +1767,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1717,23 +1780,30 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1744,25 +1814,25 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1776,9 +1846,9 @@
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT1
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -1931,13 +2001,20 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -1945,7 +2022,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1958,23 +2035,30 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1985,25 +2069,25 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2017,9 +2101,9 @@
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT1
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -2172,13 +2256,20 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -2186,7 +2277,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2199,23 +2290,30 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2226,25 +2324,25 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2258,9 +2356,9 @@
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT1
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -2413,13 +2511,20 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -2438,75 +2543,96 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>MH007
 (Practice)
 Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>MH008
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
-Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>MH006
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH016
 (Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr"/>
+Room: TH3
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2519,23 +2645,30 @@
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
+          <t>MH005
+(Theory)
+Room: A101
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -2549,15 +2682,29 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT1
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
@@ -2579,7 +2726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2700,48 +2847,83 @@
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>MH007
 (Practice)
 Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -2759,68 +2941,82 @@
         <v>30</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT4
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>MH007
+(Practice)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>MH008
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH016
+(Practice)
+Room: TH3
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>MH016
 (Practice)
 Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
@@ -2838,28 +3034,64 @@
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3000,15 +3232,36 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -3028,25 +3281,25 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH007
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -3064,38 +3317,45 @@
         <v>30</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>MH008
-(Practice)
-Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH007
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH005
 (Theory)
 Room: LT4
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH016
+(Practice)
+Room: TH3
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3106,25 +3366,25 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -3138,15 +3398,22 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT1
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
@@ -3293,13 +3560,20 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -3318,68 +3592,96 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>MH007
 (Practice)
 Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>MH008
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
-Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>MH006
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH016
 (Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr"/>
+Room: TH3
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3390,25 +3692,25 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -3422,15 +3724,36 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr">
         <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
           <t>MH006
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A101
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
@@ -3574,16 +3897,30 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -3591,7 +3928,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3603,31 +3940,38 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -3638,17 +3982,24 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
@@ -3668,17 +4019,17 @@
         <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
@@ -3699,9 +4050,9 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT2
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -3710,7 +4061,7 @@
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr">
         <is>
-          <t>MH006
+          <t>MH005
 (Theory)
 Room: LT4
 Lecturer: GV001</t>
@@ -3859,15 +4210,29 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -3886,19 +4251,33 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -3917,30 +4296,30 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
           <t>MH006
 (Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3953,23 +4332,37 @@
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
+          <t>MH005
+(Theory)
+Room: A101
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -3983,9 +4376,9 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT3
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -4137,14 +4530,28 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -4165,17 +4572,24 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -4194,20 +4608,27 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
           <t>MH006
 (Practice)
-Room: TH2
-Lecturer: GV001</t>
+Room: TH3
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="H10" s="8" t="inlineStr">
         <is>
-          <t>MH007
-(Theory)
-Room: LT4
+          <t>MH005
+(Theory)
+Room: LT2
 Lecturer: GV001</t>
         </is>
       </c>
@@ -4217,7 +4638,7 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -4228,25 +4649,25 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -4260,9 +4681,9 @@
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT1
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -4415,13 +4836,20 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: LT1
-Lecturer: GV001</t>
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
@@ -4429,7 +4857,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -4442,23 +4870,30 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH007
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -4469,25 +4904,25 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH008
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH007
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -4501,9 +4936,9 @@
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT1
+          <t>MH005
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
